--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/15/seed4/result_data_RandomForest.xlsx
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.346000000000004</v>
+        <v>-8.433100000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.805799999999994</v>
+        <v>-8.670999999999996</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.1378</v>
+        <v>-8.1692</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
